--- a/Documents/System diagrams.xlsx
+++ b/Documents/System diagrams.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="22995" windowHeight="9975" tabRatio="617" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="22995" windowHeight="9975" tabRatio="617" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Existing Init" sheetId="9" r:id="rId1"/>
@@ -17,12 +17,11 @@
     <sheet name="Proposed Msg Rejection" sheetId="13" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="66">
   <si>
     <t>x</t>
   </si>
@@ -610,6 +609,12 @@
       </rPr>
       <t xml:space="preserve"> y+1</t>
     </r>
+  </si>
+  <si>
+    <t>TTH Schedule</t>
+  </si>
+  <si>
+    <t>Logging List of x CAN messages</t>
   </si>
 </sst>
 </file>
@@ -1923,6 +1928,216 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1969,6 +2184,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1977,15 +2201,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1995,254 +2210,44 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5871,13 +5876,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>489698</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>489698</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6049,13 +6054,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1299883</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>100853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>537882</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6098,12 +6103,12 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>739588</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>56030</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>1064559</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6148,12 +6153,12 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>923925</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>336177</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6198,13 +6203,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>215152</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>207312</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>493058</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>67236</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6258,13 +6263,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>210673</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>189380</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>683560</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7860,10 +7865,10 @@
       <c r="B5" s="19"/>
       <c r="F5" s="20"/>
       <c r="G5" s="46"/>
-      <c r="H5" s="164" t="s">
+      <c r="H5" s="234" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="164"/>
+      <c r="I5" s="234"/>
       <c r="J5" s="47"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
@@ -7911,10 +7916,10 @@
       <c r="F10" s="32"/>
       <c r="G10" s="56"/>
       <c r="H10" s="57"/>
-      <c r="I10" s="165" t="s">
+      <c r="I10" s="235" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="166"/>
+      <c r="J10" s="236"/>
     </row>
     <row r="11" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B11" s="21"/>
@@ -7930,10 +7935,10 @@
       <c r="E12" s="25"/>
       <c r="F12" s="32"/>
       <c r="G12" s="33"/>
-      <c r="H12" s="171" t="s">
+      <c r="H12" s="241" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="172"/>
+      <c r="I12" s="242"/>
       <c r="J12" s="22"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
@@ -7941,8 +7946,8 @@
       <c r="E13" s="25"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
-      <c r="H13" s="173"/>
-      <c r="I13" s="174"/>
+      <c r="H13" s="243"/>
+      <c r="I13" s="244"/>
       <c r="J13" s="22"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
@@ -7965,17 +7970,17 @@
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="21"/>
-      <c r="C16" s="167" t="s">
+      <c r="C16" s="237" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="167"/>
-      <c r="E16" s="167"/>
+      <c r="D16" s="237"/>
+      <c r="E16" s="237"/>
       <c r="F16" s="22"/>
       <c r="G16" s="21"/>
-      <c r="H16" s="168" t="s">
+      <c r="H16" s="238" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="168"/>
+      <c r="I16" s="238"/>
       <c r="J16" s="22"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
@@ -8240,16 +8245,16 @@
       <c r="B37" s="26"/>
       <c r="C37" s="27"/>
       <c r="D37" s="28"/>
-      <c r="E37" s="169" t="s">
+      <c r="E37" s="239" t="s">
         <v>18</v>
       </c>
-      <c r="F37" s="170"/>
+      <c r="F37" s="240"/>
       <c r="G37" s="26"/>
       <c r="H37" s="28"/>
-      <c r="I37" s="169" t="s">
+      <c r="I37" s="239" t="s">
         <v>31</v>
       </c>
-      <c r="J37" s="170"/>
+      <c r="J37" s="240"/>
     </row>
     <row r="38" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -8329,10 +8334,10 @@
       <c r="B5" s="19"/>
       <c r="F5" s="20"/>
       <c r="G5" s="46"/>
-      <c r="H5" s="164" t="s">
+      <c r="H5" s="234" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="164"/>
+      <c r="I5" s="234"/>
       <c r="J5" s="47"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
@@ -8384,10 +8389,10 @@
       <c r="F10" s="32"/>
       <c r="G10" s="56"/>
       <c r="H10" s="57"/>
-      <c r="I10" s="165" t="s">
+      <c r="I10" s="235" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="166"/>
+      <c r="J10" s="236"/>
     </row>
     <row r="11" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B11" s="21"/>
@@ -8403,10 +8408,10 @@
       <c r="E12" s="25"/>
       <c r="F12" s="32"/>
       <c r="G12" s="33"/>
-      <c r="H12" s="175" t="s">
+      <c r="H12" s="245" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="176"/>
+      <c r="I12" s="246"/>
       <c r="J12" s="22"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
@@ -8414,8 +8419,8 @@
       <c r="E13" s="25"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
-      <c r="H13" s="177"/>
-      <c r="I13" s="178"/>
+      <c r="H13" s="247"/>
+      <c r="I13" s="248"/>
       <c r="J13" s="22"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
@@ -8438,17 +8443,17 @@
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="21"/>
-      <c r="C16" s="167" t="s">
+      <c r="C16" s="237" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="167"/>
-      <c r="E16" s="167"/>
+      <c r="D16" s="237"/>
+      <c r="E16" s="237"/>
       <c r="F16" s="22"/>
       <c r="G16" s="21"/>
-      <c r="H16" s="168" t="s">
+      <c r="H16" s="238" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="168"/>
+      <c r="I16" s="238"/>
       <c r="J16" s="22"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
@@ -8715,16 +8720,16 @@
       <c r="B37" s="26"/>
       <c r="C37" s="27"/>
       <c r="D37" s="28"/>
-      <c r="E37" s="169" t="s">
+      <c r="E37" s="239" t="s">
         <v>18</v>
       </c>
-      <c r="F37" s="170"/>
+      <c r="F37" s="240"/>
       <c r="G37" s="26"/>
       <c r="H37" s="28"/>
-      <c r="I37" s="169" t="s">
+      <c r="I37" s="239" t="s">
         <v>31</v>
       </c>
-      <c r="J37" s="170"/>
+      <c r="J37" s="240"/>
     </row>
     <row r="38" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -8804,10 +8809,10 @@
       <c r="B5" s="19"/>
       <c r="F5" s="20"/>
       <c r="G5" s="46"/>
-      <c r="H5" s="164" t="s">
+      <c r="H5" s="234" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="164"/>
+      <c r="I5" s="234"/>
       <c r="J5" s="47"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
@@ -8859,10 +8864,10 @@
       <c r="F10" s="32"/>
       <c r="G10" s="56"/>
       <c r="H10" s="57"/>
-      <c r="I10" s="165" t="s">
+      <c r="I10" s="235" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="166"/>
+      <c r="J10" s="236"/>
     </row>
     <row r="11" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B11" s="21"/>
@@ -8878,10 +8883,10 @@
       <c r="E12" s="25"/>
       <c r="F12" s="32"/>
       <c r="G12" s="33"/>
-      <c r="H12" s="175" t="s">
+      <c r="H12" s="245" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="176"/>
+      <c r="I12" s="246"/>
       <c r="J12" s="22"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
@@ -8889,8 +8894,8 @@
       <c r="E13" s="25"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
-      <c r="H13" s="177"/>
-      <c r="I13" s="178"/>
+      <c r="H13" s="247"/>
+      <c r="I13" s="248"/>
       <c r="J13" s="22"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
@@ -8913,17 +8918,17 @@
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="21"/>
-      <c r="C16" s="167" t="s">
+      <c r="C16" s="237" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="167"/>
-      <c r="E16" s="167"/>
+      <c r="D16" s="237"/>
+      <c r="E16" s="237"/>
       <c r="F16" s="22"/>
       <c r="G16" s="21"/>
-      <c r="H16" s="168" t="s">
+      <c r="H16" s="238" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="168"/>
+      <c r="I16" s="238"/>
       <c r="J16" s="22"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
@@ -9188,16 +9193,16 @@
       <c r="B37" s="26"/>
       <c r="C37" s="27"/>
       <c r="D37" s="28"/>
-      <c r="E37" s="169" t="s">
+      <c r="E37" s="239" t="s">
         <v>18</v>
       </c>
-      <c r="F37" s="170"/>
+      <c r="F37" s="240"/>
       <c r="G37" s="26"/>
       <c r="H37" s="28"/>
-      <c r="I37" s="169" t="s">
+      <c r="I37" s="239" t="s">
         <v>31</v>
       </c>
-      <c r="J37" s="170"/>
+      <c r="J37" s="240"/>
     </row>
     <row r="38" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -9284,20 +9289,20 @@
     </row>
     <row r="5" spans="2:28" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="19"/>
-      <c r="C5" s="167" t="s">
+      <c r="C5" s="237" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="167"/>
-      <c r="E5" s="167"/>
+      <c r="D5" s="237"/>
+      <c r="E5" s="237"/>
       <c r="F5" s="99"/>
       <c r="G5" s="99"/>
       <c r="H5" s="20"/>
       <c r="I5" s="46"/>
-      <c r="J5" s="181" t="s">
+      <c r="J5" s="254" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="181"/>
-      <c r="L5" s="181"/>
+      <c r="K5" s="254"/>
+      <c r="L5" s="254"/>
       <c r="M5" s="109"/>
       <c r="N5" s="47"/>
       <c r="T5" s="111"/>
@@ -9374,7 +9379,7 @@
         <v>39</v>
       </c>
       <c r="L7" s="158"/>
-      <c r="M7" s="188"/>
+      <c r="M7" s="164"/>
       <c r="N7" s="50"/>
       <c r="T7" s="25"/>
       <c r="U7" s="25"/>
@@ -9434,7 +9439,7 @@
       <c r="J9" s="159"/>
       <c r="K9" s="58"/>
       <c r="L9" s="160"/>
-      <c r="M9" s="188"/>
+      <c r="M9" s="164"/>
       <c r="N9" s="50"/>
       <c r="T9" s="25"/>
       <c r="U9" s="25"/>
@@ -9458,7 +9463,7 @@
       <c r="J10" s="159"/>
       <c r="K10" s="58"/>
       <c r="L10" s="160"/>
-      <c r="M10" s="188"/>
+      <c r="M10" s="164"/>
       <c r="N10" s="50"/>
       <c r="T10" s="25"/>
       <c r="U10" s="25"/>
@@ -9482,7 +9487,7 @@
       <c r="J11" s="159"/>
       <c r="K11" s="58"/>
       <c r="L11" s="160"/>
-      <c r="M11" s="188"/>
+      <c r="M11" s="164"/>
       <c r="N11" s="50"/>
       <c r="T11" s="25"/>
       <c r="U11" s="25"/>
@@ -9506,7 +9511,7 @@
       <c r="J12" s="159"/>
       <c r="K12" s="58"/>
       <c r="L12" s="160"/>
-      <c r="M12" s="188"/>
+      <c r="M12" s="164"/>
       <c r="N12" s="50"/>
       <c r="T12" s="25"/>
       <c r="U12" s="25"/>
@@ -9542,7 +9547,7 @@
         <v>41</v>
       </c>
       <c r="L13" s="163"/>
-      <c r="M13" s="188"/>
+      <c r="M13" s="164"/>
       <c r="N13" s="50"/>
       <c r="T13" s="25"/>
       <c r="U13" s="25"/>
@@ -9562,7 +9567,7 @@
       <c r="D14" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="201"/>
+      <c r="E14" s="177"/>
       <c r="F14" s="143">
         <v>1</v>
       </c>
@@ -9590,7 +9595,7 @@
       <c r="B15" s="21"/>
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="202"/>
+      <c r="E15" s="178"/>
       <c r="F15" s="139"/>
       <c r="G15" s="140"/>
       <c r="H15" s="22"/>
@@ -9614,7 +9619,7 @@
       <c r="B16" s="21"/>
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="202"/>
+      <c r="E16" s="178"/>
       <c r="F16" s="139"/>
       <c r="G16" s="140"/>
       <c r="H16" s="22"/>
@@ -9638,7 +9643,7 @@
       <c r="B17" s="21"/>
       <c r="C17" s="2"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="202"/>
+      <c r="E17" s="178"/>
       <c r="F17" s="139"/>
       <c r="G17" s="140"/>
       <c r="H17" s="22"/>
@@ -9662,7 +9667,7 @@
       <c r="B18" s="21"/>
       <c r="C18" s="2"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="202"/>
+      <c r="E18" s="178"/>
       <c r="F18" s="139"/>
       <c r="G18" s="140"/>
       <c r="H18" s="22"/>
@@ -9686,7 +9691,7 @@
       <c r="B19" s="21"/>
       <c r="C19" s="2"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="202"/>
+      <c r="E19" s="178"/>
       <c r="F19" s="139"/>
       <c r="G19" s="140"/>
       <c r="H19" s="22"/>
@@ -9710,7 +9715,7 @@
       <c r="B20" s="21"/>
       <c r="C20" s="2"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="202"/>
+      <c r="E20" s="178"/>
       <c r="F20" s="139"/>
       <c r="G20" s="140"/>
       <c r="H20" s="22"/>
@@ -9734,20 +9739,20 @@
       <c r="B21" s="21"/>
       <c r="C21" s="2"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="202"/>
+      <c r="E21" s="178"/>
       <c r="F21" s="139"/>
       <c r="G21" s="140"/>
       <c r="H21" s="22"/>
       <c r="I21" s="54"/>
-      <c r="J21" s="179"/>
-      <c r="K21" s="179"/>
+      <c r="J21" s="252"/>
+      <c r="K21" s="252"/>
       <c r="L21" s="70"/>
       <c r="M21" s="70"/>
       <c r="N21" s="50"/>
       <c r="T21" s="25"/>
       <c r="U21" s="54"/>
-      <c r="V21" s="179"/>
-      <c r="W21" s="179"/>
+      <c r="V21" s="252"/>
+      <c r="W21" s="252"/>
       <c r="X21" s="70"/>
       <c r="Y21" s="54"/>
       <c r="Z21" s="25"/>
@@ -9758,20 +9763,20 @@
       <c r="B22" s="21"/>
       <c r="C22" s="2"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="202"/>
+      <c r="E22" s="178"/>
       <c r="F22" s="139"/>
       <c r="G22" s="140"/>
       <c r="H22" s="22"/>
       <c r="I22" s="54"/>
-      <c r="J22" s="180"/>
-      <c r="K22" s="180"/>
+      <c r="J22" s="253"/>
+      <c r="K22" s="253"/>
       <c r="L22" s="68"/>
       <c r="M22" s="68"/>
       <c r="N22" s="50"/>
       <c r="T22" s="25"/>
       <c r="U22" s="54"/>
-      <c r="V22" s="180"/>
-      <c r="W22" s="180"/>
+      <c r="V22" s="253"/>
+      <c r="W22" s="253"/>
       <c r="X22" s="68"/>
       <c r="Y22" s="54"/>
       <c r="Z22" s="25"/>
@@ -9782,20 +9787,20 @@
       <c r="B23" s="21"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="202"/>
+      <c r="E23" s="178"/>
       <c r="F23" s="139"/>
       <c r="G23" s="140"/>
       <c r="H23" s="22"/>
       <c r="I23" s="54"/>
-      <c r="J23" s="180"/>
-      <c r="K23" s="180"/>
+      <c r="J23" s="253"/>
+      <c r="K23" s="253"/>
       <c r="L23" s="68"/>
       <c r="M23" s="68"/>
       <c r="N23" s="50"/>
       <c r="T23" s="25"/>
       <c r="U23" s="54"/>
-      <c r="V23" s="180"/>
-      <c r="W23" s="180"/>
+      <c r="V23" s="253"/>
+      <c r="W23" s="253"/>
       <c r="X23" s="68"/>
       <c r="Y23" s="54"/>
       <c r="Z23" s="25"/>
@@ -9810,8 +9815,8 @@
       <c r="D24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="202"/>
-      <c r="F24" s="203">
+      <c r="E24" s="178"/>
+      <c r="F24" s="179">
         <v>1</v>
       </c>
       <c r="G24" s="152">
@@ -9868,29 +9873,29 @@
       <c r="H26" s="22"/>
       <c r="I26" s="57"/>
       <c r="J26" s="57"/>
-      <c r="K26" s="165" t="s">
+      <c r="K26" s="235" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="165"/>
-      <c r="M26" s="165"/>
-      <c r="N26" s="166"/>
+      <c r="L26" s="235"/>
+      <c r="M26" s="235"/>
+      <c r="N26" s="236"/>
       <c r="T26" s="25"/>
       <c r="U26" s="54"/>
       <c r="V26" s="54"/>
-      <c r="W26" s="182"/>
-      <c r="X26" s="182"/>
-      <c r="Y26" s="182"/>
+      <c r="W26" s="249"/>
+      <c r="X26" s="249"/>
+      <c r="Y26" s="249"/>
       <c r="Z26" s="25"/>
       <c r="AA26" s="25"/>
       <c r="AB26" s="25"/>
     </row>
     <row r="27" spans="2:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B27" s="21"/>
-      <c r="C27" s="168" t="s">
+      <c r="C27" s="238" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="168"/>
-      <c r="E27" s="168"/>
+      <c r="D27" s="238"/>
+      <c r="E27" s="238"/>
       <c r="F27" s="71"/>
       <c r="G27" s="71"/>
       <c r="H27" s="22"/>
@@ -9942,13 +9947,13 @@
     </row>
     <row r="29" spans="2:28" ht="18" x14ac:dyDescent="0.25">
       <c r="B29" s="21"/>
-      <c r="C29" s="195">
+      <c r="C29" s="171">
         <v>0</v>
       </c>
       <c r="D29" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="196">
+      <c r="E29" s="172">
         <v>0</v>
       </c>
       <c r="F29" s="34"/>
@@ -9995,9 +10000,9 @@
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B31" s="21"/>
-      <c r="C31" s="197"/>
+      <c r="C31" s="173"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="198"/>
+      <c r="E31" s="174"/>
       <c r="F31" s="34"/>
       <c r="G31" s="34"/>
       <c r="H31" s="22"/>
@@ -10010,26 +10015,26 @@
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B32" s="21"/>
-      <c r="C32" s="197"/>
+      <c r="C32" s="173"/>
       <c r="D32" s="6"/>
-      <c r="E32" s="198"/>
+      <c r="E32" s="174"/>
       <c r="F32" s="34"/>
       <c r="G32" s="34"/>
       <c r="H32" s="22"/>
       <c r="I32" s="21"/>
       <c r="J32" s="106"/>
-      <c r="K32" s="183" t="s">
+      <c r="K32" s="250" t="s">
         <v>60</v>
       </c>
-      <c r="L32" s="184"/>
+      <c r="L32" s="251"/>
       <c r="M32" s="107"/>
       <c r="N32" s="22"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="21"/>
-      <c r="C33" s="197"/>
+      <c r="C33" s="173"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="198"/>
+      <c r="E33" s="174"/>
       <c r="F33" s="34"/>
       <c r="G33" s="34"/>
       <c r="H33" s="22"/>
@@ -10042,30 +10047,30 @@
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="21"/>
-      <c r="C34" s="197"/>
+      <c r="C34" s="173"/>
       <c r="D34" s="6"/>
-      <c r="E34" s="198"/>
+      <c r="E34" s="174"/>
       <c r="F34" s="34"/>
       <c r="G34" s="34"/>
       <c r="H34" s="22"/>
       <c r="I34" s="21"/>
       <c r="J34" s="106"/>
-      <c r="K34" s="183" t="s">
+      <c r="K34" s="250" t="s">
         <v>61</v>
       </c>
-      <c r="L34" s="184"/>
+      <c r="L34" s="251"/>
       <c r="M34" s="107"/>
       <c r="N34" s="22"/>
     </row>
     <row r="35" spans="2:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="21"/>
-      <c r="C35" s="199" t="s">
+      <c r="C35" s="175" t="s">
         <v>1</v>
       </c>
       <c r="D35" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="200" t="s">
+      <c r="E35" s="176" t="s">
         <v>1</v>
       </c>
       <c r="F35" s="34"/>
@@ -10104,12 +10109,12 @@
       <c r="G37" s="25"/>
       <c r="H37" s="22"/>
       <c r="I37" s="21"/>
-      <c r="J37" s="189"/>
+      <c r="J37" s="165"/>
       <c r="K37" s="120" t="s">
         <v>1</v>
       </c>
       <c r="L37" s="72"/>
-      <c r="M37" s="190"/>
+      <c r="M37" s="166"/>
       <c r="N37" s="22"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
@@ -10121,10 +10126,10 @@
       <c r="G38" s="25"/>
       <c r="H38" s="22"/>
       <c r="I38" s="21"/>
-      <c r="J38" s="191"/>
-      <c r="K38" s="192"/>
-      <c r="L38" s="193"/>
-      <c r="M38" s="194"/>
+      <c r="J38" s="167"/>
+      <c r="K38" s="168"/>
+      <c r="L38" s="169"/>
+      <c r="M38" s="170"/>
       <c r="N38" s="22"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
@@ -10161,31 +10166,24 @@
       <c r="B41" s="26"/>
       <c r="C41" s="27"/>
       <c r="D41" s="28"/>
-      <c r="E41" s="169" t="s">
+      <c r="E41" s="239" t="s">
         <v>18</v>
       </c>
-      <c r="F41" s="169"/>
-      <c r="G41" s="169"/>
-      <c r="H41" s="170"/>
+      <c r="F41" s="239"/>
+      <c r="G41" s="239"/>
+      <c r="H41" s="240"/>
       <c r="I41" s="26"/>
       <c r="J41" s="28"/>
-      <c r="K41" s="169" t="s">
+      <c r="K41" s="239" t="s">
         <v>19</v>
       </c>
-      <c r="L41" s="169"/>
-      <c r="M41" s="169"/>
-      <c r="N41" s="170"/>
+      <c r="L41" s="239"/>
+      <c r="M41" s="239"/>
+      <c r="N41" s="240"/>
     </row>
     <row r="42" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="W26:Y26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K41:N41"/>
     <mergeCell ref="V21:W21"/>
     <mergeCell ref="V22:V23"/>
     <mergeCell ref="W22:W23"/>
@@ -10194,6 +10192,13 @@
     <mergeCell ref="J21:K21"/>
     <mergeCell ref="J22:J23"/>
     <mergeCell ref="K22:K23"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="W26:Y26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K41:N41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10204,15 +10209,16 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B2:AA42"/>
+  <dimension ref="B2:AA33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U22" sqref="U22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="5"/>
+    <col min="1" max="1" width="9" style="5" customWidth="1"/>
+    <col min="2" max="2" width="2.85546875" style="5" customWidth="1"/>
     <col min="3" max="3" width="14.140625" style="7" customWidth="1"/>
     <col min="4" max="4" width="12" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="5" customWidth="1"/>
@@ -10223,7 +10229,8 @@
     <col min="11" max="11" width="18" style="5" customWidth="1"/>
     <col min="12" max="12" width="21.85546875" style="5" customWidth="1"/>
     <col min="13" max="13" width="9.140625" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="5"/>
+    <col min="14" max="14" width="3.42578125" style="5" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:27" ht="18.75" x14ac:dyDescent="0.25">
@@ -10283,27 +10290,27 @@
     </row>
     <row r="5" spans="2:27" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="19"/>
-      <c r="C5" s="167" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="167"/>
-      <c r="E5" s="167"/>
+      <c r="C5" s="237" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="237"/>
+      <c r="E5" s="237"/>
       <c r="F5" s="99"/>
       <c r="G5" s="99"/>
       <c r="H5" s="20"/>
       <c r="I5" s="55"/>
-      <c r="J5" s="181" t="s">
+      <c r="J5" s="254" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="181"/>
-      <c r="L5" s="181"/>
+      <c r="K5" s="254"/>
+      <c r="L5" s="254"/>
       <c r="M5" s="109"/>
       <c r="N5" s="47"/>
       <c r="U5" s="111"/>
       <c r="V5" s="55"/>
-      <c r="W5" s="187"/>
-      <c r="X5" s="187"/>
-      <c r="Y5" s="187"/>
+      <c r="W5" s="257"/>
+      <c r="X5" s="257"/>
+      <c r="Y5" s="257"/>
       <c r="Z5" s="55"/>
       <c r="AA5" s="111"/>
     </row>
@@ -10354,10 +10361,10 @@
         <v>5</v>
       </c>
       <c r="E7" s="85"/>
-      <c r="F7" s="204">
+      <c r="F7" s="180">
         <v>0</v>
       </c>
-      <c r="G7" s="204">
+      <c r="G7" s="180">
         <v>1</v>
       </c>
       <c r="H7" s="30"/>
@@ -10368,8 +10375,8 @@
       <c r="K7" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="L7" s="206"/>
-      <c r="M7" s="188"/>
+      <c r="L7" s="182"/>
+      <c r="M7" s="164"/>
       <c r="N7" s="50"/>
       <c r="U7" s="25"/>
       <c r="V7" s="102"/>
@@ -10419,17 +10426,17 @@
     </row>
     <row r="9" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B9" s="21"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="205"/>
-      <c r="G9" s="205"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="30"/>
       <c r="I9" s="62"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="207"/>
-      <c r="M9" s="188"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="184"/>
+      <c r="M9" s="164"/>
       <c r="N9" s="50"/>
       <c r="U9" s="25"/>
       <c r="V9" s="102"/>
@@ -10450,8 +10457,8 @@
       <c r="I10" s="62"/>
       <c r="J10" s="52"/>
       <c r="K10" s="53"/>
-      <c r="L10" s="208"/>
-      <c r="M10" s="188"/>
+      <c r="L10" s="184"/>
+      <c r="M10" s="164"/>
       <c r="N10" s="50"/>
       <c r="U10" s="25"/>
       <c r="V10" s="102"/>
@@ -10461,19 +10468,31 @@
       <c r="Z10" s="54"/>
       <c r="AA10" s="25"/>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:27" ht="18" x14ac:dyDescent="0.25">
       <c r="B11" s="21"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
+      <c r="C11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="E11" s="9"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
+      <c r="F11" s="14">
+        <v>0</v>
+      </c>
+      <c r="G11" s="14">
+        <v>1</v>
+      </c>
       <c r="H11" s="30"/>
       <c r="I11" s="62"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="208"/>
-      <c r="M11" s="188"/>
+      <c r="J11" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" s="184"/>
+      <c r="M11" s="164"/>
       <c r="N11" s="50"/>
       <c r="U11" s="25"/>
       <c r="V11" s="102"/>
@@ -10483,93 +10502,81 @@
       <c r="Z11" s="54"/>
       <c r="AA11" s="25"/>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:27" ht="18" x14ac:dyDescent="0.25">
       <c r="B12" s="21"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="208"/>
-      <c r="M12" s="188"/>
+      <c r="C12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="13">
+        <v>1</v>
+      </c>
+      <c r="G12" s="13">
+        <v>1</v>
+      </c>
+      <c r="H12" s="22"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
       <c r="N12" s="50"/>
       <c r="U12" s="25"/>
-      <c r="V12" s="102"/>
-      <c r="W12" s="25"/>
-      <c r="X12" s="25"/>
-      <c r="Y12" s="25"/>
+      <c r="V12" s="54"/>
+      <c r="W12" s="54"/>
+      <c r="X12" s="54"/>
+      <c r="Y12" s="54"/>
       <c r="Z12" s="54"/>
       <c r="AA12" s="25"/>
     </row>
-    <row r="13" spans="2:27" ht="18" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B13" s="21"/>
-      <c r="C13" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="14">
-        <v>0</v>
-      </c>
-      <c r="G13" s="14">
-        <v>1</v>
-      </c>
-      <c r="H13" s="30"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="K13" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="L13" s="208"/>
-      <c r="M13" s="188"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="102"/>
+      <c r="M13" s="102"/>
       <c r="N13" s="50"/>
       <c r="U13" s="25"/>
-      <c r="V13" s="102"/>
-      <c r="W13" s="25"/>
-      <c r="X13" s="25"/>
-      <c r="Y13" s="25"/>
+      <c r="V13" s="54"/>
+      <c r="W13" s="54"/>
+      <c r="X13" s="54"/>
+      <c r="Y13" s="54"/>
       <c r="Z13" s="54"/>
       <c r="AA13" s="25"/>
     </row>
-    <row r="14" spans="2:27" ht="18" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B14" s="21"/>
-      <c r="C14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="13">
-        <v>1</v>
-      </c>
-      <c r="G14" s="13">
-        <v>1</v>
-      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
       <c r="H14" s="22"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="255"/>
+      <c r="K14" s="255"/>
+      <c r="L14" s="114"/>
+      <c r="M14" s="114"/>
       <c r="N14" s="50"/>
       <c r="U14" s="25"/>
       <c r="V14" s="54"/>
-      <c r="W14" s="54"/>
-      <c r="X14" s="54"/>
-      <c r="Y14" s="54"/>
+      <c r="W14" s="255"/>
+      <c r="X14" s="255"/>
+      <c r="Y14" s="114"/>
       <c r="Z14" s="54"/>
       <c r="AA14" s="25"/>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="21"/>
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
@@ -10577,17 +10584,17 @@
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="22"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="256"/>
+      <c r="L15" s="115"/>
+      <c r="M15" s="115"/>
       <c r="N15" s="50"/>
       <c r="U15" s="25"/>
       <c r="V15" s="54"/>
-      <c r="W15" s="55"/>
-      <c r="X15" s="55"/>
-      <c r="Y15" s="55"/>
+      <c r="W15" s="256"/>
+      <c r="X15" s="256"/>
+      <c r="Y15" s="96"/>
       <c r="Z15" s="54"/>
       <c r="AA15" s="25"/>
     </row>
@@ -10599,575 +10606,384 @@
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
       <c r="H16" s="22"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
+      <c r="I16" s="102"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="256"/>
+      <c r="L16" s="115"/>
+      <c r="M16" s="115"/>
       <c r="N16" s="50"/>
       <c r="U16" s="25"/>
       <c r="V16" s="54"/>
-      <c r="W16" s="54"/>
-      <c r="X16" s="54"/>
-      <c r="Y16" s="54"/>
+      <c r="W16" s="256"/>
+      <c r="X16" s="256"/>
+      <c r="Y16" s="96"/>
       <c r="Z16" s="54"/>
       <c r="AA16" s="25"/>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:27" ht="18" x14ac:dyDescent="0.25">
       <c r="B17" s="21"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="1"/>
+      <c r="C17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="F17" s="13">
+        <v>1</v>
+      </c>
+      <c r="G17" s="13">
+        <v>1</v>
+      </c>
       <c r="H17" s="22"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="94"/>
       <c r="N17" s="50"/>
       <c r="U17" s="25"/>
       <c r="V17" s="54"/>
-      <c r="W17" s="54"/>
-      <c r="X17" s="54"/>
-      <c r="Y17" s="54"/>
+      <c r="W17" s="116"/>
+      <c r="X17" s="117"/>
+      <c r="Y17" s="117"/>
       <c r="Z17" s="54"/>
       <c r="AA17" s="25"/>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="21"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="25"/>
       <c r="H18" s="22"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="50"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="235" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="235"/>
+      <c r="M18" s="235"/>
+      <c r="N18" s="236"/>
       <c r="U18" s="25"/>
       <c r="V18" s="54"/>
-      <c r="W18" s="54"/>
-      <c r="X18" s="54"/>
-      <c r="Y18" s="54"/>
-      <c r="Z18" s="54"/>
+      <c r="W18" s="102"/>
+      <c r="X18" s="118"/>
+      <c r="Y18" s="118"/>
+      <c r="Z18" s="113"/>
       <c r="AA18" s="25"/>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B19" s="21"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="C19" s="238" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="238"/>
+      <c r="E19" s="238"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
       <c r="H19" s="22"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="50"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="18"/>
       <c r="U19" s="25"/>
-      <c r="V19" s="54"/>
-      <c r="W19" s="54"/>
-      <c r="X19" s="54"/>
-      <c r="Y19" s="54"/>
-      <c r="Z19" s="54"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="25"/>
       <c r="AA19" s="25"/>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B20" s="21"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="C20" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
       <c r="H20" s="22"/>
-      <c r="I20" s="102"/>
-      <c r="J20" s="102"/>
-      <c r="K20" s="102"/>
-      <c r="L20" s="102"/>
-      <c r="M20" s="102"/>
-      <c r="N20" s="50"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="22"/>
       <c r="U20" s="25"/>
-      <c r="V20" s="54"/>
-      <c r="W20" s="54"/>
-      <c r="X20" s="54"/>
-      <c r="Y20" s="54"/>
-      <c r="Z20" s="54"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="25"/>
       <c r="AA20" s="25"/>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:27" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="21"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="C21" s="84">
+        <v>0</v>
+      </c>
+      <c r="D21" s="85" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="84">
+        <v>0</v>
+      </c>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
       <c r="H21" s="22"/>
-      <c r="I21" s="102"/>
-      <c r="J21" s="185"/>
-      <c r="K21" s="185"/>
-      <c r="L21" s="114"/>
-      <c r="M21" s="114"/>
-      <c r="N21" s="50"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="22"/>
       <c r="U21" s="25"/>
-      <c r="V21" s="54"/>
-      <c r="W21" s="185"/>
-      <c r="X21" s="185"/>
-      <c r="Y21" s="114"/>
-      <c r="Z21" s="54"/>
+      <c r="V21" s="25"/>
+      <c r="W21" s="25"/>
+      <c r="X21" s="25"/>
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="25"/>
       <c r="AA21" s="25"/>
     </row>
-    <row r="22" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:27" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="21"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="C22" s="88">
+        <v>1</v>
+      </c>
+      <c r="D22" s="89" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="90">
+        <v>1</v>
+      </c>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
       <c r="H22" s="22"/>
-      <c r="I22" s="102"/>
-      <c r="J22" s="94"/>
-      <c r="K22" s="186"/>
-      <c r="L22" s="115"/>
-      <c r="M22" s="115"/>
-      <c r="N22" s="50"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="228" t="s">
+        <v>49</v>
+      </c>
+      <c r="K22" s="229"/>
+      <c r="L22" s="229"/>
+      <c r="M22" s="230"/>
+      <c r="N22" s="22"/>
       <c r="U22" s="25"/>
-      <c r="V22" s="54"/>
-      <c r="W22" s="186"/>
-      <c r="X22" s="186"/>
-      <c r="Y22" s="96"/>
-      <c r="Z22" s="54"/>
+      <c r="V22" s="25"/>
+      <c r="W22" s="25"/>
+      <c r="X22" s="25"/>
+      <c r="Y22" s="25"/>
+      <c r="Z22" s="25"/>
       <c r="AA22" s="25"/>
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B23" s="21"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
       <c r="H23" s="22"/>
-      <c r="I23" s="102"/>
-      <c r="J23" s="94"/>
-      <c r="K23" s="186"/>
-      <c r="L23" s="115"/>
-      <c r="M23" s="115"/>
-      <c r="N23" s="50"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="231"/>
+      <c r="K23" s="232"/>
+      <c r="L23" s="232"/>
+      <c r="M23" s="233"/>
+      <c r="N23" s="22"/>
       <c r="U23" s="25"/>
-      <c r="V23" s="54"/>
-      <c r="W23" s="186"/>
-      <c r="X23" s="186"/>
-      <c r="Y23" s="96"/>
-      <c r="Z23" s="54"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="25"/>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="25"/>
       <c r="AA23" s="25"/>
     </row>
-    <row r="24" spans="2:27" ht="18" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B24" s="21"/>
-      <c r="C24" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="13">
-        <v>1</v>
-      </c>
-      <c r="G24" s="13">
-        <v>1</v>
-      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
       <c r="H24" s="22"/>
-      <c r="I24" s="102"/>
-      <c r="J24" s="115"/>
-      <c r="K24" s="94"/>
-      <c r="L24" s="94"/>
-      <c r="M24" s="94"/>
-      <c r="N24" s="50"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="231"/>
+      <c r="K24" s="258" t="s">
+        <v>60</v>
+      </c>
+      <c r="L24" s="259"/>
+      <c r="M24" s="233"/>
+      <c r="N24" s="22"/>
       <c r="U24" s="25"/>
-      <c r="V24" s="54"/>
-      <c r="W24" s="116"/>
-      <c r="X24" s="117"/>
-      <c r="Y24" s="117"/>
-      <c r="Z24" s="54"/>
+      <c r="V24" s="25"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="25"/>
       <c r="AA24" s="25"/>
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B25" s="21"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="97"/>
-      <c r="G25" s="25"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
       <c r="H25" s="22"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="102"/>
-      <c r="K25" s="102"/>
-      <c r="L25" s="102"/>
-      <c r="M25" s="102"/>
-      <c r="N25" s="50"/>
-      <c r="U25" s="25"/>
-      <c r="V25" s="54"/>
-      <c r="W25" s="102"/>
-      <c r="X25" s="102"/>
-      <c r="Y25" s="102"/>
-      <c r="Z25" s="54"/>
-      <c r="AA25" s="25"/>
-    </row>
-    <row r="26" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I25" s="21"/>
+      <c r="J25" s="231"/>
+      <c r="K25" s="232"/>
+      <c r="L25" s="232"/>
+      <c r="M25" s="233"/>
+      <c r="N25" s="22"/>
+    </row>
+    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B26" s="21"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="97"/>
-      <c r="G26" s="25"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
       <c r="H26" s="22"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="165" t="s">
-        <v>20</v>
-      </c>
-      <c r="L26" s="165"/>
-      <c r="M26" s="165"/>
-      <c r="N26" s="166"/>
-      <c r="U26" s="25"/>
-      <c r="V26" s="54"/>
-      <c r="W26" s="102"/>
-      <c r="X26" s="118"/>
-      <c r="Y26" s="118"/>
-      <c r="Z26" s="113"/>
-      <c r="AA26" s="25"/>
-    </row>
-    <row r="27" spans="2:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="I26" s="21"/>
+      <c r="J26" s="231"/>
+      <c r="K26" s="258" t="s">
+        <v>61</v>
+      </c>
+      <c r="L26" s="259"/>
+      <c r="M26" s="233"/>
+      <c r="N26" s="22"/>
+      <c r="U26" s="7"/>
+    </row>
+    <row r="27" spans="2:27" ht="18" x14ac:dyDescent="0.25">
       <c r="B27" s="21"/>
-      <c r="C27" s="168" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="168"/>
-      <c r="E27" s="168"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
+      <c r="C27" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
       <c r="H27" s="22"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="18"/>
-      <c r="U27" s="25"/>
-      <c r="V27" s="25"/>
-      <c r="W27" s="25"/>
-      <c r="X27" s="25"/>
-      <c r="Y27" s="25"/>
-      <c r="Z27" s="25"/>
-      <c r="AA27" s="25"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="231"/>
+      <c r="K27" s="232"/>
+      <c r="L27" s="232"/>
+      <c r="M27" s="233"/>
+      <c r="N27" s="22"/>
     </row>
     <row r="28" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B28" s="21"/>
-      <c r="C28" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="83" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="97"/>
+      <c r="G28" s="25"/>
       <c r="H28" s="22"/>
       <c r="I28" s="21"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
+      <c r="J28" s="231"/>
+      <c r="K28" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="L28" s="232"/>
+      <c r="M28" s="233"/>
       <c r="N28" s="22"/>
-      <c r="U28" s="25"/>
-      <c r="V28" s="25"/>
-      <c r="W28" s="25"/>
-      <c r="X28" s="25"/>
-      <c r="Y28" s="25"/>
-      <c r="Z28" s="25"/>
-      <c r="AA28" s="25"/>
-    </row>
-    <row r="29" spans="2:27" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B29" s="21"/>
-      <c r="C29" s="84">
-        <v>0</v>
-      </c>
-      <c r="D29" s="85" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="84">
-        <v>0</v>
-      </c>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="97"/>
+      <c r="G29" s="25"/>
       <c r="H29" s="22"/>
       <c r="I29" s="21"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
+      <c r="J29" s="127"/>
+      <c r="K29" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="L29" s="75"/>
+      <c r="M29" s="128"/>
       <c r="N29" s="22"/>
-      <c r="U29" s="25"/>
-      <c r="V29" s="25"/>
-      <c r="W29" s="25"/>
-      <c r="X29" s="25"/>
-      <c r="Y29" s="25"/>
-      <c r="Z29" s="25"/>
-      <c r="AA29" s="25"/>
-    </row>
-    <row r="30" spans="2:27" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="21"/>
-      <c r="C30" s="88">
-        <v>1</v>
-      </c>
-      <c r="D30" s="89" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="90">
-        <v>1</v>
-      </c>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="97"/>
+      <c r="G30" s="25"/>
       <c r="H30" s="22"/>
       <c r="I30" s="21"/>
-      <c r="J30" s="265" t="s">
-        <v>49</v>
-      </c>
-      <c r="K30" s="266"/>
-      <c r="L30" s="266"/>
-      <c r="M30" s="267"/>
+      <c r="J30" s="129"/>
+      <c r="K30" s="130"/>
+      <c r="L30" s="131"/>
+      <c r="M30" s="132"/>
       <c r="N30" s="22"/>
-      <c r="U30" s="25"/>
-      <c r="V30" s="25"/>
-      <c r="W30" s="25"/>
-      <c r="X30" s="25"/>
-      <c r="Y30" s="25"/>
-      <c r="Z30" s="25"/>
-      <c r="AA30" s="25"/>
     </row>
     <row r="31" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B31" s="21"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="97"/>
+      <c r="G31" s="25"/>
       <c r="H31" s="22"/>
       <c r="I31" s="21"/>
-      <c r="J31" s="268"/>
-      <c r="K31" s="269"/>
-      <c r="L31" s="269"/>
-      <c r="M31" s="270"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
       <c r="N31" s="22"/>
-      <c r="U31" s="25"/>
-      <c r="V31" s="25"/>
-      <c r="W31" s="25"/>
-      <c r="X31" s="25"/>
-      <c r="Y31" s="25"/>
-      <c r="Z31" s="25"/>
-      <c r="AA31" s="25"/>
-    </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B32" s="21"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="268"/>
-      <c r="K32" s="261" t="s">
-        <v>60</v>
-      </c>
-      <c r="L32" s="262"/>
-      <c r="M32" s="270"/>
-      <c r="N32" s="22"/>
-      <c r="U32" s="25"/>
-      <c r="V32" s="25"/>
-      <c r="W32" s="25"/>
-      <c r="X32" s="25"/>
-      <c r="Y32" s="25"/>
-      <c r="Z32" s="25"/>
-      <c r="AA32" s="25"/>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B33" s="21"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="268"/>
-      <c r="K33" s="269"/>
-      <c r="L33" s="269"/>
-      <c r="M33" s="270"/>
-      <c r="N33" s="22"/>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B34" s="21"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="268"/>
-      <c r="K34" s="261" t="s">
-        <v>61</v>
-      </c>
-      <c r="L34" s="262"/>
-      <c r="M34" s="270"/>
-      <c r="N34" s="22"/>
-      <c r="U34" s="7"/>
-    </row>
-    <row r="35" spans="2:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="B35" s="21"/>
-      <c r="C35" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="268"/>
-      <c r="K35" s="269"/>
-      <c r="L35" s="269"/>
-      <c r="M35" s="270"/>
-      <c r="N35" s="22"/>
-    </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B36" s="21"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="97"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="268"/>
-      <c r="K36" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="L36" s="269"/>
-      <c r="M36" s="270"/>
-      <c r="N36" s="22"/>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B37" s="21"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="97"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="127"/>
-      <c r="K37" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="L37" s="75"/>
-      <c r="M37" s="128"/>
-      <c r="N37" s="22"/>
-    </row>
-    <row r="38" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="21"/>
-      <c r="C38" s="71"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="97"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="129"/>
-      <c r="K38" s="130"/>
-      <c r="L38" s="131"/>
-      <c r="M38" s="132"/>
-      <c r="N38" s="22"/>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B39" s="21"/>
-      <c r="C39" s="75"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="97"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="25"/>
-      <c r="N39" s="22"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B40" s="21"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="97"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="25"/>
-      <c r="N40" s="22"/>
-    </row>
-    <row r="41" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="26"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="169" t="s">
+    </row>
+    <row r="32" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="26"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="239" t="s">
         <v>18</v>
       </c>
-      <c r="F41" s="169"/>
-      <c r="G41" s="169"/>
-      <c r="H41" s="170"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="169" t="s">
-        <v>19</v>
-      </c>
-      <c r="L41" s="169"/>
-      <c r="M41" s="169"/>
-      <c r="N41" s="170"/>
-    </row>
-    <row r="42" spans="2:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="F32" s="239"/>
+      <c r="G32" s="239"/>
+      <c r="H32" s="240"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="239" t="s">
+        <v>64</v>
+      </c>
+      <c r="L32" s="239"/>
+      <c r="M32" s="239"/>
+      <c r="N32" s="240"/>
+    </row>
+    <row r="33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E32:H32"/>
     <mergeCell ref="C5:E5"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W22:W23"/>
-    <mergeCell ref="X22:X23"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="X15:X16"/>
     <mergeCell ref="W5:Y5"/>
-    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C19:E19"/>
     <mergeCell ref="J5:L5"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K32:N32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11185,24 +11001,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="215"/>
-    <col min="3" max="3" width="13.85546875" style="217" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="215" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21" style="215" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" style="217" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="215" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="215"/>
-    <col min="10" max="10" width="14.7109375" style="215" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" style="215" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" style="215" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="215" customWidth="1"/>
-    <col min="14" max="14" width="6" style="215" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="215" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="215"/>
+    <col min="1" max="2" width="9.140625" style="191"/>
+    <col min="3" max="3" width="13.85546875" style="193" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="191" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" style="191" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" style="193" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="191" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="191"/>
+    <col min="10" max="10" width="14.7109375" style="191" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" style="191" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" style="191" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="191" customWidth="1"/>
+    <col min="14" max="14" width="6" style="191" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="191" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="191"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C2" s="216" t="s">
+      <c r="C2" s="192" t="s">
         <v>60</v>
       </c>
       <c r="K2" s="10"/>
@@ -11212,38 +11028,38 @@
     </row>
     <row r="3" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="218"/>
-      <c r="C4" s="219"/>
-      <c r="D4" s="220"/>
-      <c r="E4" s="220"/>
-      <c r="F4" s="219"/>
-      <c r="G4" s="220"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="222"/>
-      <c r="J4" s="222"/>
-      <c r="K4" s="222"/>
-      <c r="L4" s="222"/>
-      <c r="M4" s="222"/>
-      <c r="N4" s="223"/>
-    </row>
-    <row r="5" spans="2:19" s="231" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="224"/>
-      <c r="C5" s="225" t="s">
+      <c r="B4" s="194"/>
+      <c r="C4" s="195"/>
+      <c r="D4" s="196"/>
+      <c r="E4" s="196"/>
+      <c r="F4" s="195"/>
+      <c r="G4" s="196"/>
+      <c r="H4" s="197"/>
+      <c r="I4" s="198"/>
+      <c r="J4" s="198"/>
+      <c r="K4" s="198"/>
+      <c r="L4" s="198"/>
+      <c r="M4" s="198"/>
+      <c r="N4" s="199"/>
+    </row>
+    <row r="5" spans="2:19" s="205" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="200"/>
+      <c r="C5" s="262" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="225"/>
-      <c r="E5" s="225"/>
-      <c r="F5" s="226"/>
-      <c r="G5" s="226"/>
-      <c r="H5" s="227"/>
-      <c r="I5" s="228"/>
-      <c r="J5" s="229" t="s">
+      <c r="D5" s="262"/>
+      <c r="E5" s="262"/>
+      <c r="F5" s="201"/>
+      <c r="G5" s="201"/>
+      <c r="H5" s="202"/>
+      <c r="I5" s="203"/>
+      <c r="J5" s="263" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="229"/>
-      <c r="L5" s="229"/>
+      <c r="K5" s="263"/>
+      <c r="L5" s="263"/>
       <c r="M5" s="115"/>
-      <c r="N5" s="230"/>
+      <c r="N5" s="204"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="33"/>
@@ -11264,17 +11080,17 @@
       </c>
       <c r="H6" s="32"/>
       <c r="I6" s="102"/>
-      <c r="J6" s="232" t="s">
+      <c r="J6" s="206" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="232" t="s">
+      <c r="K6" s="206" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="232" t="s">
+      <c r="L6" s="206" t="s">
         <v>4</v>
       </c>
       <c r="M6" s="114"/>
-      <c r="N6" s="233"/>
+      <c r="N6" s="207"/>
     </row>
     <row r="7" spans="2:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="33"/>
@@ -11288,7 +11104,7 @@
       <c r="F7" s="84">
         <v>0</v>
       </c>
-      <c r="G7" s="204">
+      <c r="G7" s="180">
         <v>1</v>
       </c>
       <c r="H7" s="30"/>
@@ -11299,19 +11115,19 @@
       <c r="K7" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="L7" s="206"/>
-      <c r="M7" s="188"/>
-      <c r="N7" s="233"/>
+      <c r="L7" s="182"/>
+      <c r="M7" s="164"/>
+      <c r="N7" s="207"/>
     </row>
     <row r="8" spans="2:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="33"/>
-      <c r="C8" s="247">
+      <c r="C8" s="216">
         <v>1</v>
       </c>
-      <c r="D8" s="248" t="s">
+      <c r="D8" s="217" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="248" t="s">
+      <c r="E8" s="217" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="110" t="s">
@@ -11322,15 +11138,15 @@
       </c>
       <c r="H8" s="32"/>
       <c r="I8" s="102"/>
-      <c r="J8" s="234">
+      <c r="J8" s="208">
         <v>1</v>
       </c>
-      <c r="K8" s="235" t="s">
+      <c r="K8" s="209" t="s">
         <v>59</v>
       </c>
-      <c r="L8" s="236"/>
+      <c r="L8" s="210"/>
       <c r="M8" s="117"/>
-      <c r="N8" s="233"/>
+      <c r="N8" s="207"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="33"/>
@@ -11338,15 +11154,15 @@
       <c r="D9" s="91"/>
       <c r="E9" s="91"/>
       <c r="F9" s="86"/>
-      <c r="G9" s="205"/>
+      <c r="G9" s="181"/>
       <c r="H9" s="30"/>
       <c r="I9" s="62"/>
       <c r="J9" s="78"/>
       <c r="K9" s="79"/>
-      <c r="L9" s="207"/>
-      <c r="M9" s="188"/>
-      <c r="N9" s="233"/>
-      <c r="S9" s="237"/>
+      <c r="L9" s="183"/>
+      <c r="M9" s="164"/>
+      <c r="N9" s="207"/>
+      <c r="S9" s="211"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="33"/>
@@ -11359,9 +11175,9 @@
       <c r="I10" s="62"/>
       <c r="J10" s="52"/>
       <c r="K10" s="53"/>
-      <c r="L10" s="208"/>
-      <c r="M10" s="188"/>
-      <c r="N10" s="233"/>
+      <c r="L10" s="184"/>
+      <c r="M10" s="164"/>
+      <c r="N10" s="207"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" s="33"/>
@@ -11374,9 +11190,9 @@
       <c r="I11" s="62"/>
       <c r="J11" s="52"/>
       <c r="K11" s="53"/>
-      <c r="L11" s="208"/>
-      <c r="M11" s="188"/>
-      <c r="N11" s="233"/>
+      <c r="L11" s="184"/>
+      <c r="M11" s="164"/>
+      <c r="N11" s="207"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="33"/>
@@ -11389,9 +11205,9 @@
       <c r="I12" s="62"/>
       <c r="J12" s="52"/>
       <c r="K12" s="53"/>
-      <c r="L12" s="208"/>
-      <c r="M12" s="188"/>
-      <c r="N12" s="233"/>
+      <c r="L12" s="184"/>
+      <c r="M12" s="164"/>
+      <c r="N12" s="207"/>
     </row>
     <row r="13" spans="2:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="33"/>
@@ -11405,7 +11221,7 @@
       <c r="F13" s="84">
         <v>0</v>
       </c>
-      <c r="G13" s="204">
+      <c r="G13" s="180">
         <v>1</v>
       </c>
       <c r="H13" s="30"/>
@@ -11416,9 +11232,9 @@
       <c r="K13" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="L13" s="208"/>
-      <c r="M13" s="188"/>
-      <c r="N13" s="233"/>
+      <c r="L13" s="184"/>
+      <c r="M13" s="164"/>
+      <c r="N13" s="207"/>
     </row>
     <row r="14" spans="2:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="33"/>
@@ -11428,8 +11244,8 @@
       <c r="D14" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="248"/>
-      <c r="F14" s="249" t="s">
+      <c r="E14" s="217"/>
+      <c r="F14" s="218" t="s">
         <v>56</v>
       </c>
       <c r="G14" s="90">
@@ -11441,7 +11257,7 @@
       <c r="K14" s="102"/>
       <c r="L14" s="102"/>
       <c r="M14" s="102"/>
-      <c r="N14" s="233"/>
+      <c r="N14" s="207"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15" s="33"/>
@@ -11451,14 +11267,14 @@
       <c r="F15" s="86">
         <v>1</v>
       </c>
-      <c r="G15" s="205"/>
+      <c r="G15" s="181"/>
       <c r="H15" s="32"/>
       <c r="I15" s="102"/>
-      <c r="J15" s="228"/>
-      <c r="K15" s="228"/>
-      <c r="L15" s="228"/>
-      <c r="M15" s="228"/>
-      <c r="N15" s="233"/>
+      <c r="J15" s="203"/>
+      <c r="K15" s="203"/>
+      <c r="L15" s="203"/>
+      <c r="M15" s="203"/>
+      <c r="N15" s="207"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="33"/>
@@ -11475,7 +11291,7 @@
       <c r="K16" s="102"/>
       <c r="L16" s="102"/>
       <c r="M16" s="102"/>
-      <c r="N16" s="233"/>
+      <c r="N16" s="207"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B17" s="33"/>
@@ -11492,7 +11308,7 @@
       <c r="K17" s="102"/>
       <c r="L17" s="102"/>
       <c r="M17" s="102"/>
-      <c r="N17" s="233"/>
+      <c r="N17" s="207"/>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B18" s="33"/>
@@ -11509,7 +11325,7 @@
       <c r="K18" s="102"/>
       <c r="L18" s="102"/>
       <c r="M18" s="102"/>
-      <c r="N18" s="233"/>
+      <c r="N18" s="207"/>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B19" s="33"/>
@@ -11526,7 +11342,7 @@
       <c r="K19" s="102"/>
       <c r="L19" s="102"/>
       <c r="M19" s="102"/>
-      <c r="N19" s="233"/>
+      <c r="N19" s="207"/>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B20" s="33"/>
@@ -11543,7 +11359,7 @@
       <c r="K20" s="102"/>
       <c r="L20" s="102"/>
       <c r="M20" s="102"/>
-      <c r="N20" s="233"/>
+      <c r="N20" s="207"/>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B21" s="33"/>
@@ -11560,7 +11376,7 @@
       <c r="K21" s="118"/>
       <c r="L21" s="114"/>
       <c r="M21" s="114"/>
-      <c r="N21" s="233"/>
+      <c r="N21" s="207"/>
     </row>
     <row r="22" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="33"/>
@@ -11577,7 +11393,7 @@
       <c r="K22" s="94"/>
       <c r="L22" s="115"/>
       <c r="M22" s="115"/>
-      <c r="N22" s="233"/>
+      <c r="N22" s="207"/>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B23" s="33"/>
@@ -11594,7 +11410,7 @@
       <c r="K23" s="94"/>
       <c r="L23" s="115"/>
       <c r="M23" s="115"/>
-      <c r="N23" s="233"/>
+      <c r="N23" s="207"/>
     </row>
     <row r="24" spans="2:21" ht="18" x14ac:dyDescent="0.25">
       <c r="B24" s="33"/>
@@ -11617,7 +11433,7 @@
       <c r="K24" s="94"/>
       <c r="L24" s="94"/>
       <c r="M24" s="94"/>
-      <c r="N24" s="233"/>
+      <c r="N24" s="207"/>
       <c r="U24" s="8"/>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
@@ -11633,7 +11449,7 @@
       <c r="K25" s="102"/>
       <c r="L25" s="102"/>
       <c r="M25" s="102"/>
-      <c r="N25" s="233"/>
+      <c r="N25" s="207"/>
     </row>
     <row r="26" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="33"/>
@@ -11643,31 +11459,31 @@
       <c r="F26" s="34"/>
       <c r="G26" s="10"/>
       <c r="H26" s="32"/>
-      <c r="I26" s="238"/>
-      <c r="J26" s="238"/>
-      <c r="K26" s="239" t="s">
+      <c r="I26" s="212"/>
+      <c r="J26" s="212"/>
+      <c r="K26" s="260" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="239"/>
-      <c r="M26" s="239"/>
-      <c r="N26" s="240"/>
+      <c r="L26" s="260"/>
+      <c r="M26" s="260"/>
+      <c r="N26" s="261"/>
     </row>
     <row r="27" spans="2:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B27" s="33"/>
-      <c r="C27" s="241" t="s">
+      <c r="C27" s="264" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="241"/>
-      <c r="E27" s="241"/>
+      <c r="D27" s="264"/>
+      <c r="E27" s="264"/>
       <c r="F27" s="72"/>
       <c r="G27" s="72"/>
       <c r="H27" s="32"/>
-      <c r="I27" s="218"/>
-      <c r="J27" s="220"/>
-      <c r="K27" s="220"/>
-      <c r="L27" s="220"/>
-      <c r="M27" s="220"/>
-      <c r="N27" s="221"/>
+      <c r="I27" s="194"/>
+      <c r="J27" s="196"/>
+      <c r="K27" s="196"/>
+      <c r="L27" s="196"/>
+      <c r="M27" s="196"/>
+      <c r="N27" s="197"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B28" s="33"/>
@@ -11716,7 +11532,7 @@
       <c r="C30" s="37">
         <v>1</v>
       </c>
-      <c r="D30" s="235" t="s">
+      <c r="D30" s="209" t="s">
         <v>59</v>
       </c>
       <c r="E30" s="37">
@@ -11759,10 +11575,10 @@
       <c r="H32" s="32"/>
       <c r="I32" s="33"/>
       <c r="J32" s="100"/>
-      <c r="K32" s="263" t="s">
+      <c r="K32" s="267" t="s">
         <v>60</v>
       </c>
-      <c r="L32" s="264"/>
+      <c r="L32" s="268"/>
       <c r="M32" s="105"/>
       <c r="N32" s="32"/>
     </row>
@@ -11791,10 +11607,10 @@
       <c r="H34" s="32"/>
       <c r="I34" s="33"/>
       <c r="J34" s="100"/>
-      <c r="K34" s="261" t="s">
+      <c r="K34" s="258" t="s">
         <v>61</v>
       </c>
-      <c r="L34" s="262"/>
+      <c r="L34" s="259"/>
       <c r="M34" s="105"/>
       <c r="N34" s="32"/>
     </row>
@@ -11829,7 +11645,7 @@
       <c r="H36" s="32"/>
       <c r="I36" s="33"/>
       <c r="J36" s="100"/>
-      <c r="K36" s="204" t="s">
+      <c r="K36" s="180" t="s">
         <v>62</v>
       </c>
       <c r="L36" s="10"/>
@@ -11845,12 +11661,12 @@
       <c r="G37" s="10"/>
       <c r="H37" s="32"/>
       <c r="I37" s="33"/>
-      <c r="J37" s="189"/>
+      <c r="J37" s="165"/>
       <c r="K37" s="120" t="s">
         <v>63</v>
       </c>
       <c r="L37" s="72"/>
-      <c r="M37" s="190"/>
+      <c r="M37" s="166"/>
       <c r="N37" s="32"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
@@ -11862,10 +11678,10 @@
       <c r="G38" s="10"/>
       <c r="H38" s="32"/>
       <c r="I38" s="33"/>
-      <c r="J38" s="191"/>
-      <c r="K38" s="192"/>
-      <c r="L38" s="193"/>
-      <c r="M38" s="194"/>
+      <c r="J38" s="167"/>
+      <c r="K38" s="168"/>
+      <c r="L38" s="169"/>
+      <c r="M38" s="170"/>
       <c r="N38" s="32"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
@@ -11899,23 +11715,23 @@
       <c r="N40" s="32"/>
     </row>
     <row r="41" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="242"/>
-      <c r="C41" s="243"/>
-      <c r="D41" s="244"/>
-      <c r="E41" s="245" t="s">
+      <c r="B41" s="213"/>
+      <c r="C41" s="214"/>
+      <c r="D41" s="215"/>
+      <c r="E41" s="265" t="s">
         <v>18</v>
       </c>
-      <c r="F41" s="245"/>
-      <c r="G41" s="245"/>
-      <c r="H41" s="246"/>
-      <c r="I41" s="242"/>
-      <c r="J41" s="244"/>
-      <c r="K41" s="245" t="s">
+      <c r="F41" s="265"/>
+      <c r="G41" s="265"/>
+      <c r="H41" s="266"/>
+      <c r="I41" s="213"/>
+      <c r="J41" s="215"/>
+      <c r="K41" s="265" t="s">
         <v>19</v>
       </c>
-      <c r="L41" s="245"/>
-      <c r="M41" s="245"/>
-      <c r="N41" s="246"/>
+      <c r="L41" s="265"/>
+      <c r="M41" s="265"/>
+      <c r="N41" s="266"/>
     </row>
     <row r="42" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -11940,31 +11756,31 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:T42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="215"/>
-    <col min="3" max="3" width="13.85546875" style="217" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="215" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21" style="215" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" style="217" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="215" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="215"/>
-    <col min="10" max="10" width="14.7109375" style="215" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" style="215" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" style="215" customWidth="1"/>
-    <col min="13" max="13" width="6" style="215" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="215" customWidth="1"/>
-    <col min="15" max="20" width="9.140625" style="215"/>
-    <col min="21" max="21" width="22.7109375" style="215" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="215"/>
+    <col min="1" max="2" width="9.140625" style="191"/>
+    <col min="3" max="3" width="13.85546875" style="193" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="191" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" style="191" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" style="193" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="191" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="191"/>
+    <col min="10" max="10" width="14.7109375" style="191" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" style="191" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" style="191" customWidth="1"/>
+    <col min="13" max="13" width="6" style="191" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="191" customWidth="1"/>
+    <col min="15" max="20" width="9.140625" style="191"/>
+    <col min="21" max="21" width="22.7109375" style="191" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="191"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C2" s="216" t="s">
+      <c r="C2" s="192" t="s">
         <v>23</v>
       </c>
       <c r="K2" s="10"/>
@@ -11973,38 +11789,38 @@
     </row>
     <row r="3" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="218"/>
-      <c r="C4" s="219"/>
-      <c r="D4" s="220"/>
-      <c r="E4" s="220"/>
-      <c r="F4" s="219"/>
-      <c r="G4" s="220"/>
-      <c r="H4" s="221"/>
-      <c r="I4" s="222"/>
-      <c r="J4" s="222"/>
-      <c r="K4" s="222"/>
-      <c r="L4" s="222"/>
-      <c r="M4" s="222"/>
-      <c r="N4" s="223"/>
-    </row>
-    <row r="5" spans="2:18" s="231" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="224"/>
-      <c r="C5" s="225" t="s">
+      <c r="B4" s="194"/>
+      <c r="C4" s="195"/>
+      <c r="D4" s="196"/>
+      <c r="E4" s="196"/>
+      <c r="F4" s="195"/>
+      <c r="G4" s="196"/>
+      <c r="H4" s="197"/>
+      <c r="I4" s="198"/>
+      <c r="J4" s="198"/>
+      <c r="K4" s="198"/>
+      <c r="L4" s="198"/>
+      <c r="M4" s="198"/>
+      <c r="N4" s="199"/>
+    </row>
+    <row r="5" spans="2:18" s="205" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="200"/>
+      <c r="C5" s="262" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="225"/>
-      <c r="E5" s="225"/>
-      <c r="F5" s="226"/>
-      <c r="G5" s="226"/>
-      <c r="H5" s="227"/>
-      <c r="I5" s="228"/>
-      <c r="J5" s="229" t="s">
+      <c r="D5" s="262"/>
+      <c r="E5" s="262"/>
+      <c r="F5" s="201"/>
+      <c r="G5" s="201"/>
+      <c r="H5" s="202"/>
+      <c r="I5" s="203"/>
+      <c r="J5" s="263" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="229"/>
-      <c r="L5" s="229"/>
+      <c r="K5" s="263"/>
+      <c r="L5" s="263"/>
       <c r="M5" s="115"/>
-      <c r="N5" s="230"/>
+      <c r="N5" s="204"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="33"/>
@@ -12025,17 +11841,17 @@
       </c>
       <c r="H6" s="32"/>
       <c r="I6" s="102"/>
-      <c r="J6" s="232" t="s">
+      <c r="J6" s="206" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="232" t="s">
+      <c r="K6" s="206" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="232" t="s">
+      <c r="L6" s="206" t="s">
         <v>4</v>
       </c>
       <c r="M6" s="114"/>
-      <c r="N6" s="233"/>
+      <c r="N6" s="207"/>
     </row>
     <row r="7" spans="2:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="33"/>
@@ -12049,7 +11865,7 @@
       <c r="F7" s="84">
         <v>0</v>
       </c>
-      <c r="G7" s="250">
+      <c r="G7" s="219">
         <v>1</v>
       </c>
       <c r="H7" s="30"/>
@@ -12060,9 +11876,9 @@
       <c r="K7" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="L7" s="206"/>
-      <c r="M7" s="188"/>
-      <c r="N7" s="233"/>
+      <c r="L7" s="182"/>
+      <c r="M7" s="164"/>
+      <c r="N7" s="207"/>
     </row>
     <row r="8" spans="2:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="33"/>
@@ -12091,7 +11907,7 @@
       </c>
       <c r="L8" s="80"/>
       <c r="M8" s="117"/>
-      <c r="N8" s="233"/>
+      <c r="N8" s="207"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="33"/>
@@ -12099,15 +11915,15 @@
       <c r="D9" s="91"/>
       <c r="E9" s="91"/>
       <c r="F9" s="86"/>
-      <c r="G9" s="251"/>
+      <c r="G9" s="220"/>
       <c r="H9" s="30"/>
       <c r="I9" s="62"/>
       <c r="J9" s="78"/>
       <c r="K9" s="79"/>
-      <c r="L9" s="207"/>
-      <c r="M9" s="188"/>
-      <c r="N9" s="233"/>
-      <c r="R9" s="237"/>
+      <c r="L9" s="183"/>
+      <c r="M9" s="164"/>
+      <c r="N9" s="207"/>
+      <c r="R9" s="211"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="33"/>
@@ -12120,9 +11936,9 @@
       <c r="I10" s="62"/>
       <c r="J10" s="52"/>
       <c r="K10" s="53"/>
-      <c r="L10" s="208"/>
-      <c r="M10" s="188"/>
-      <c r="N10" s="233"/>
+      <c r="L10" s="184"/>
+      <c r="M10" s="164"/>
+      <c r="N10" s="207"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="33"/>
@@ -12135,9 +11951,9 @@
       <c r="I11" s="62"/>
       <c r="J11" s="52"/>
       <c r="K11" s="53"/>
-      <c r="L11" s="208"/>
-      <c r="M11" s="188"/>
-      <c r="N11" s="233"/>
+      <c r="L11" s="184"/>
+      <c r="M11" s="164"/>
+      <c r="N11" s="207"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="33"/>
@@ -12150,9 +11966,9 @@
       <c r="I12" s="62"/>
       <c r="J12" s="52"/>
       <c r="K12" s="53"/>
-      <c r="L12" s="208"/>
-      <c r="M12" s="188"/>
-      <c r="N12" s="233"/>
+      <c r="L12" s="184"/>
+      <c r="M12" s="164"/>
+      <c r="N12" s="207"/>
     </row>
     <row r="13" spans="2:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="33"/>
@@ -12166,7 +11982,7 @@
       <c r="F13" s="84">
         <v>0</v>
       </c>
-      <c r="G13" s="250">
+      <c r="G13" s="219">
         <v>1</v>
       </c>
       <c r="H13" s="30"/>
@@ -12177,9 +11993,9 @@
       <c r="K13" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="L13" s="208"/>
-      <c r="M13" s="188"/>
-      <c r="N13" s="233"/>
+      <c r="L13" s="184"/>
+      <c r="M13" s="164"/>
+      <c r="N13" s="207"/>
     </row>
     <row r="14" spans="2:18" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="33"/>
@@ -12189,11 +12005,11 @@
       <c r="D14" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="248"/>
-      <c r="F14" s="249">
+      <c r="E14" s="217"/>
+      <c r="F14" s="218">
         <v>0</v>
       </c>
-      <c r="G14" s="252">
+      <c r="G14" s="221">
         <v>1</v>
       </c>
       <c r="H14" s="32"/>
@@ -12202,7 +12018,7 @@
       <c r="K14" s="102"/>
       <c r="L14" s="102"/>
       <c r="M14" s="102"/>
-      <c r="N14" s="233"/>
+      <c r="N14" s="207"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="33"/>
@@ -12210,14 +12026,14 @@
       <c r="D15" s="91"/>
       <c r="E15" s="91"/>
       <c r="F15" s="86"/>
-      <c r="G15" s="251"/>
+      <c r="G15" s="220"/>
       <c r="H15" s="32"/>
       <c r="I15" s="102"/>
-      <c r="J15" s="228"/>
-      <c r="K15" s="228"/>
-      <c r="L15" s="228"/>
-      <c r="M15" s="228"/>
-      <c r="N15" s="233"/>
+      <c r="J15" s="203"/>
+      <c r="K15" s="203"/>
+      <c r="L15" s="203"/>
+      <c r="M15" s="203"/>
+      <c r="N15" s="207"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="33"/>
@@ -12232,7 +12048,7 @@
       <c r="K16" s="102"/>
       <c r="L16" s="102"/>
       <c r="M16" s="102"/>
-      <c r="N16" s="233"/>
+      <c r="N16" s="207"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" s="33"/>
@@ -12247,7 +12063,7 @@
       <c r="K17" s="102"/>
       <c r="L17" s="102"/>
       <c r="M17" s="102"/>
-      <c r="N17" s="233"/>
+      <c r="N17" s="207"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="33"/>
@@ -12262,7 +12078,7 @@
       <c r="K18" s="102"/>
       <c r="L18" s="102"/>
       <c r="M18" s="102"/>
-      <c r="N18" s="233"/>
+      <c r="N18" s="207"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" s="33"/>
@@ -12277,7 +12093,7 @@
       <c r="K19" s="102"/>
       <c r="L19" s="102"/>
       <c r="M19" s="102"/>
-      <c r="N19" s="233"/>
+      <c r="N19" s="207"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="33"/>
@@ -12292,7 +12108,7 @@
       <c r="K20" s="102"/>
       <c r="L20" s="102"/>
       <c r="M20" s="102"/>
-      <c r="N20" s="233"/>
+      <c r="N20" s="207"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="33"/>
@@ -12307,7 +12123,7 @@
       <c r="K21" s="118"/>
       <c r="L21" s="114"/>
       <c r="M21" s="114"/>
-      <c r="N21" s="233"/>
+      <c r="N21" s="207"/>
     </row>
     <row r="22" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="33"/>
@@ -12322,7 +12138,7 @@
       <c r="K22" s="94"/>
       <c r="L22" s="115"/>
       <c r="M22" s="115"/>
-      <c r="N22" s="233"/>
+      <c r="N22" s="207"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="33"/>
@@ -12337,7 +12153,7 @@
       <c r="K23" s="94"/>
       <c r="L23" s="115"/>
       <c r="M23" s="115"/>
-      <c r="N23" s="233"/>
+      <c r="N23" s="207"/>
     </row>
     <row r="24" spans="2:20" ht="18" x14ac:dyDescent="0.25">
       <c r="B24" s="33"/>
@@ -12360,7 +12176,7 @@
       <c r="K24" s="94"/>
       <c r="L24" s="94"/>
       <c r="M24" s="94"/>
-      <c r="N24" s="233"/>
+      <c r="N24" s="207"/>
       <c r="T24" s="8"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
@@ -12376,7 +12192,7 @@
       <c r="K25" s="102"/>
       <c r="L25" s="102"/>
       <c r="M25" s="102"/>
-      <c r="N25" s="233"/>
+      <c r="N25" s="207"/>
     </row>
     <row r="26" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="33"/>
@@ -12386,31 +12202,31 @@
       <c r="F26" s="34"/>
       <c r="G26" s="10"/>
       <c r="H26" s="32"/>
-      <c r="I26" s="238"/>
-      <c r="J26" s="238"/>
-      <c r="K26" s="239" t="s">
+      <c r="I26" s="212"/>
+      <c r="J26" s="212"/>
+      <c r="K26" s="260" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="239"/>
-      <c r="M26" s="239"/>
-      <c r="N26" s="240"/>
+      <c r="L26" s="260"/>
+      <c r="M26" s="260"/>
+      <c r="N26" s="261"/>
     </row>
     <row r="27" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B27" s="33"/>
-      <c r="C27" s="241" t="s">
+      <c r="C27" s="264" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="241"/>
-      <c r="E27" s="241"/>
+      <c r="D27" s="264"/>
+      <c r="E27" s="264"/>
       <c r="F27" s="72"/>
       <c r="G27" s="72"/>
       <c r="H27" s="32"/>
-      <c r="I27" s="218"/>
-      <c r="J27" s="220"/>
-      <c r="K27" s="220"/>
-      <c r="L27" s="220"/>
-      <c r="M27" s="220"/>
-      <c r="N27" s="221"/>
+      <c r="I27" s="194"/>
+      <c r="J27" s="196"/>
+      <c r="K27" s="196"/>
+      <c r="L27" s="196"/>
+      <c r="M27" s="196"/>
+      <c r="N27" s="197"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B28" s="33"/>
@@ -12502,10 +12318,10 @@
       <c r="H32" s="32"/>
       <c r="I32" s="33"/>
       <c r="J32" s="100"/>
-      <c r="K32" s="261" t="s">
+      <c r="K32" s="258" t="s">
         <v>60</v>
       </c>
-      <c r="L32" s="262"/>
+      <c r="L32" s="259"/>
       <c r="M32" s="105"/>
       <c r="N32" s="32"/>
     </row>
@@ -12534,10 +12350,10 @@
       <c r="H34" s="32"/>
       <c r="I34" s="33"/>
       <c r="J34" s="100"/>
-      <c r="K34" s="263" t="s">
+      <c r="K34" s="267" t="s">
         <v>61</v>
       </c>
-      <c r="L34" s="264"/>
+      <c r="L34" s="268"/>
       <c r="M34" s="105"/>
       <c r="N34" s="32"/>
     </row>
@@ -12572,7 +12388,7 @@
       <c r="H36" s="32"/>
       <c r="I36" s="33"/>
       <c r="J36" s="100"/>
-      <c r="K36" s="204" t="s">
+      <c r="K36" s="180" t="s">
         <v>62</v>
       </c>
       <c r="L36" s="10"/>
@@ -12588,12 +12404,12 @@
       <c r="G37" s="10"/>
       <c r="H37" s="32"/>
       <c r="I37" s="33"/>
-      <c r="J37" s="189"/>
+      <c r="J37" s="165"/>
       <c r="K37" s="120" t="s">
         <v>2</v>
       </c>
       <c r="L37" s="72"/>
-      <c r="M37" s="190"/>
+      <c r="M37" s="166"/>
       <c r="N37" s="32"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
@@ -12605,10 +12421,10 @@
       <c r="G38" s="10"/>
       <c r="H38" s="32"/>
       <c r="I38" s="33"/>
-      <c r="J38" s="191"/>
-      <c r="K38" s="192"/>
-      <c r="L38" s="193"/>
-      <c r="M38" s="194"/>
+      <c r="J38" s="167"/>
+      <c r="K38" s="168"/>
+      <c r="L38" s="169"/>
+      <c r="M38" s="170"/>
       <c r="N38" s="32"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
@@ -12642,23 +12458,23 @@
       <c r="N40" s="32"/>
     </row>
     <row r="41" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="242"/>
-      <c r="C41" s="243"/>
-      <c r="D41" s="244"/>
-      <c r="E41" s="245" t="s">
+      <c r="B41" s="213"/>
+      <c r="C41" s="214"/>
+      <c r="D41" s="215"/>
+      <c r="E41" s="265" t="s">
         <v>18</v>
       </c>
-      <c r="F41" s="245"/>
-      <c r="G41" s="245"/>
-      <c r="H41" s="246"/>
-      <c r="I41" s="242"/>
-      <c r="J41" s="244"/>
-      <c r="K41" s="245" t="s">
+      <c r="F41" s="265"/>
+      <c r="G41" s="265"/>
+      <c r="H41" s="266"/>
+      <c r="I41" s="213"/>
+      <c r="J41" s="215"/>
+      <c r="K41" s="265" t="s">
         <v>19</v>
       </c>
-      <c r="L41" s="245"/>
-      <c r="M41" s="245"/>
-      <c r="N41" s="246"/>
+      <c r="L41" s="265"/>
+      <c r="M41" s="265"/>
+      <c r="N41" s="266"/>
     </row>
     <row r="42" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -12711,13 +12527,13 @@
       </c>
       <c r="I2" s="41"/>
       <c r="J2" s="41"/>
-      <c r="K2" s="257" t="s">
+      <c r="K2" s="226" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="258" t="s">
+      <c r="L2" s="227" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="188"/>
+      <c r="M2" s="164"/>
     </row>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I3" s="41"/>
@@ -12743,20 +12559,20 @@
     </row>
     <row r="5" spans="2:15" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="19"/>
-      <c r="C5" s="167" t="s">
+      <c r="C5" s="237" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="167"/>
-      <c r="E5" s="167"/>
+      <c r="D5" s="237"/>
+      <c r="E5" s="237"/>
       <c r="F5" s="99"/>
       <c r="G5" s="99"/>
       <c r="H5" s="20"/>
       <c r="I5" s="46"/>
-      <c r="J5" s="181" t="s">
+      <c r="J5" s="254" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="181"/>
-      <c r="L5" s="181"/>
+      <c r="K5" s="254"/>
+      <c r="L5" s="254"/>
       <c r="M5" s="112"/>
       <c r="N5" s="47"/>
     </row>
@@ -12803,21 +12619,21 @@
       <c r="F7" s="84">
         <v>0</v>
       </c>
-      <c r="G7" s="204">
+      <c r="G7" s="180">
         <v>1</v>
       </c>
       <c r="H7" s="30"/>
       <c r="I7" s="51"/>
-      <c r="J7" s="232">
+      <c r="J7" s="206">
         <v>0</v>
       </c>
-      <c r="K7" s="253" t="s">
+      <c r="K7" s="222" t="s">
         <v>47</v>
       </c>
-      <c r="L7" s="208"/>
-      <c r="M7" s="188"/>
-      <c r="N7" s="233"/>
-      <c r="O7" s="215"/>
+      <c r="L7" s="184"/>
+      <c r="M7" s="164"/>
+      <c r="N7" s="207"/>
+      <c r="O7" s="191"/>
     </row>
     <row r="8" spans="2:15" ht="18" x14ac:dyDescent="0.25">
       <c r="B8" s="33"/>
@@ -12836,16 +12652,16 @@
       </c>
       <c r="H8" s="30"/>
       <c r="I8" s="51"/>
-      <c r="J8" s="232">
+      <c r="J8" s="206">
         <v>1</v>
       </c>
-      <c r="K8" s="253" t="s">
+      <c r="K8" s="222" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="208"/>
-      <c r="M8" s="188"/>
-      <c r="N8" s="233"/>
-      <c r="O8" s="215"/>
+      <c r="L8" s="184"/>
+      <c r="M8" s="164"/>
+      <c r="N8" s="207"/>
+      <c r="O8" s="191"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="33"/>
@@ -12853,15 +12669,15 @@
       <c r="D9" s="91"/>
       <c r="E9" s="91"/>
       <c r="F9" s="86"/>
-      <c r="G9" s="205"/>
+      <c r="G9" s="181"/>
       <c r="H9" s="30"/>
       <c r="I9" s="51"/>
-      <c r="J9" s="232"/>
-      <c r="K9" s="253"/>
-      <c r="L9" s="208"/>
-      <c r="M9" s="188"/>
-      <c r="N9" s="233"/>
-      <c r="O9" s="215"/>
+      <c r="J9" s="206"/>
+      <c r="K9" s="222"/>
+      <c r="L9" s="184"/>
+      <c r="M9" s="164"/>
+      <c r="N9" s="207"/>
+      <c r="O9" s="191"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="33"/>
@@ -12872,12 +12688,12 @@
       <c r="G10" s="14"/>
       <c r="H10" s="30"/>
       <c r="I10" s="51"/>
-      <c r="J10" s="232"/>
-      <c r="K10" s="253"/>
-      <c r="L10" s="208"/>
-      <c r="M10" s="188"/>
-      <c r="N10" s="233"/>
-      <c r="O10" s="215"/>
+      <c r="J10" s="206"/>
+      <c r="K10" s="222"/>
+      <c r="L10" s="184"/>
+      <c r="M10" s="164"/>
+      <c r="N10" s="207"/>
+      <c r="O10" s="191"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="33"/>
@@ -12888,12 +12704,12 @@
       <c r="G11" s="14"/>
       <c r="H11" s="30"/>
       <c r="I11" s="51"/>
-      <c r="J11" s="232"/>
-      <c r="K11" s="253"/>
-      <c r="L11" s="208"/>
-      <c r="M11" s="188"/>
-      <c r="N11" s="233"/>
-      <c r="O11" s="215"/>
+      <c r="J11" s="206"/>
+      <c r="K11" s="222"/>
+      <c r="L11" s="184"/>
+      <c r="M11" s="164"/>
+      <c r="N11" s="207"/>
+      <c r="O11" s="191"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="33"/>
@@ -12904,12 +12720,12 @@
       <c r="G12" s="14"/>
       <c r="H12" s="30"/>
       <c r="I12" s="51"/>
-      <c r="J12" s="232"/>
-      <c r="K12" s="253"/>
-      <c r="L12" s="208"/>
-      <c r="M12" s="188"/>
-      <c r="N12" s="233"/>
-      <c r="O12" s="215"/>
+      <c r="J12" s="206"/>
+      <c r="K12" s="222"/>
+      <c r="L12" s="184"/>
+      <c r="M12" s="164"/>
+      <c r="N12" s="207"/>
+      <c r="O12" s="191"/>
     </row>
     <row r="13" spans="2:15" ht="18" x14ac:dyDescent="0.25">
       <c r="B13" s="33"/>
@@ -12928,16 +12744,16 @@
       </c>
       <c r="H13" s="30"/>
       <c r="I13" s="51"/>
-      <c r="J13" s="232" t="s">
+      <c r="J13" s="206" t="s">
         <v>1</v>
       </c>
-      <c r="K13" s="253" t="s">
+      <c r="K13" s="222" t="s">
         <v>48</v>
       </c>
-      <c r="L13" s="208"/>
-      <c r="M13" s="188"/>
-      <c r="N13" s="233"/>
-      <c r="O13" s="215"/>
+      <c r="L13" s="184"/>
+      <c r="M13" s="164"/>
+      <c r="N13" s="207"/>
+      <c r="O13" s="191"/>
     </row>
     <row r="14" spans="2:15" ht="18" x14ac:dyDescent="0.25">
       <c r="B14" s="33"/>
@@ -12960,8 +12776,8 @@
       <c r="K14" s="102"/>
       <c r="L14" s="102"/>
       <c r="M14" s="102"/>
-      <c r="N14" s="233"/>
-      <c r="O14" s="215"/>
+      <c r="N14" s="207"/>
+      <c r="O14" s="191"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="33"/>
@@ -12972,12 +12788,12 @@
       <c r="G15" s="14"/>
       <c r="H15" s="32"/>
       <c r="I15" s="65"/>
-      <c r="J15" s="228"/>
-      <c r="K15" s="228"/>
-      <c r="L15" s="228"/>
-      <c r="M15" s="228"/>
-      <c r="N15" s="233"/>
-      <c r="O15" s="215"/>
+      <c r="J15" s="203"/>
+      <c r="K15" s="203"/>
+      <c r="L15" s="203"/>
+      <c r="M15" s="203"/>
+      <c r="N15" s="207"/>
+      <c r="O15" s="191"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="33"/>
@@ -12992,8 +12808,8 @@
       <c r="K16" s="102"/>
       <c r="L16" s="102"/>
       <c r="M16" s="102"/>
-      <c r="N16" s="233"/>
-      <c r="O16" s="215"/>
+      <c r="N16" s="207"/>
+      <c r="O16" s="191"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="33"/>
@@ -13008,8 +12824,8 @@
       <c r="K17" s="102"/>
       <c r="L17" s="102"/>
       <c r="M17" s="102"/>
-      <c r="N17" s="233"/>
-      <c r="O17" s="215"/>
+      <c r="N17" s="207"/>
+      <c r="O17" s="191"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="33"/>
@@ -13024,8 +12840,8 @@
       <c r="K18" s="102"/>
       <c r="L18" s="102"/>
       <c r="M18" s="102"/>
-      <c r="N18" s="233"/>
-      <c r="O18" s="215"/>
+      <c r="N18" s="207"/>
+      <c r="O18" s="191"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="33"/>
@@ -13040,8 +12856,8 @@
       <c r="K19" s="102"/>
       <c r="L19" s="102"/>
       <c r="M19" s="102"/>
-      <c r="N19" s="233"/>
-      <c r="O19" s="215"/>
+      <c r="N19" s="207"/>
+      <c r="O19" s="191"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="33"/>
@@ -13056,8 +12872,8 @@
       <c r="K20" s="102"/>
       <c r="L20" s="102"/>
       <c r="M20" s="102"/>
-      <c r="N20" s="233"/>
-      <c r="O20" s="215"/>
+      <c r="N20" s="207"/>
+      <c r="O20" s="191"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="33"/>
@@ -13072,8 +12888,8 @@
       <c r="K21" s="118"/>
       <c r="L21" s="114"/>
       <c r="M21" s="114"/>
-      <c r="N21" s="233"/>
-      <c r="O21" s="215"/>
+      <c r="N21" s="207"/>
+      <c r="O21" s="191"/>
     </row>
     <row r="22" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="33"/>
@@ -13088,8 +12904,8 @@
       <c r="K22" s="94"/>
       <c r="L22" s="115"/>
       <c r="M22" s="115"/>
-      <c r="N22" s="233"/>
-      <c r="O22" s="215"/>
+      <c r="N22" s="207"/>
+      <c r="O22" s="191"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="33"/>
@@ -13104,8 +12920,8 @@
       <c r="K23" s="94"/>
       <c r="L23" s="115"/>
       <c r="M23" s="115"/>
-      <c r="N23" s="233"/>
-      <c r="O23" s="215"/>
+      <c r="N23" s="207"/>
+      <c r="O23" s="191"/>
     </row>
     <row r="24" spans="2:15" ht="18" x14ac:dyDescent="0.25">
       <c r="B24" s="33"/>
@@ -13128,8 +12944,8 @@
       <c r="K24" s="94"/>
       <c r="L24" s="94"/>
       <c r="M24" s="94"/>
-      <c r="N24" s="233"/>
-      <c r="O24" s="215"/>
+      <c r="N24" s="207"/>
+      <c r="O24" s="191"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="33"/>
@@ -13144,8 +12960,8 @@
       <c r="K25" s="102"/>
       <c r="L25" s="102"/>
       <c r="M25" s="102"/>
-      <c r="N25" s="233"/>
-      <c r="O25" s="215"/>
+      <c r="N25" s="207"/>
+      <c r="O25" s="191"/>
     </row>
     <row r="26" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="33"/>
@@ -13155,33 +12971,33 @@
       <c r="F26" s="34"/>
       <c r="G26" s="10"/>
       <c r="H26" s="32"/>
-      <c r="I26" s="254"/>
-      <c r="J26" s="238"/>
-      <c r="K26" s="255" t="s">
+      <c r="I26" s="223"/>
+      <c r="J26" s="212"/>
+      <c r="K26" s="224" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="255"/>
-      <c r="M26" s="255"/>
-      <c r="N26" s="256"/>
-      <c r="O26" s="215"/>
+      <c r="L26" s="224"/>
+      <c r="M26" s="224"/>
+      <c r="N26" s="225"/>
+      <c r="O26" s="191"/>
     </row>
     <row r="27" spans="2:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B27" s="33"/>
-      <c r="C27" s="241" t="s">
+      <c r="C27" s="264" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="241"/>
-      <c r="E27" s="241"/>
+      <c r="D27" s="264"/>
+      <c r="E27" s="264"/>
       <c r="F27" s="72"/>
       <c r="G27" s="72"/>
       <c r="H27" s="32"/>
-      <c r="I27" s="218"/>
-      <c r="J27" s="220"/>
-      <c r="K27" s="220"/>
-      <c r="L27" s="220"/>
-      <c r="M27" s="220"/>
-      <c r="N27" s="221"/>
-      <c r="O27" s="215"/>
+      <c r="I27" s="194"/>
+      <c r="J27" s="196"/>
+      <c r="K27" s="196"/>
+      <c r="L27" s="196"/>
+      <c r="M27" s="196"/>
+      <c r="N27" s="197"/>
+      <c r="O27" s="191"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="33"/>
@@ -13203,7 +13019,7 @@
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
       <c r="N28" s="32"/>
-      <c r="O28" s="215"/>
+      <c r="O28" s="191"/>
     </row>
     <row r="29" spans="2:15" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="33"/>
@@ -13225,7 +13041,7 @@
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
       <c r="N29" s="32"/>
-      <c r="O29" s="215"/>
+      <c r="O29" s="191"/>
     </row>
     <row r="30" spans="2:15" ht="18" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
@@ -13249,7 +13065,7 @@
       <c r="L30" s="121"/>
       <c r="M30" s="122"/>
       <c r="N30" s="32"/>
-      <c r="O30" s="215"/>
+      <c r="O30" s="191"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
@@ -13265,7 +13081,7 @@
       <c r="L31" s="10"/>
       <c r="M31" s="124"/>
       <c r="N31" s="32"/>
-      <c r="O31" s="215"/>
+      <c r="O31" s="191"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="33"/>
@@ -13277,13 +13093,13 @@
       <c r="H32" s="32"/>
       <c r="I32" s="33"/>
       <c r="J32" s="125"/>
-      <c r="K32" s="259" t="s">
+      <c r="K32" s="269" t="s">
         <v>60</v>
       </c>
-      <c r="L32" s="260"/>
+      <c r="L32" s="270"/>
       <c r="M32" s="126"/>
       <c r="N32" s="32"/>
-      <c r="O32" s="215"/>
+      <c r="O32" s="191"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33" s="33"/>
@@ -13299,7 +13115,7 @@
       <c r="L33" s="25"/>
       <c r="M33" s="126"/>
       <c r="N33" s="32"/>
-      <c r="O33" s="215"/>
+      <c r="O33" s="191"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" s="33"/>
@@ -13311,13 +13127,13 @@
       <c r="H34" s="32"/>
       <c r="I34" s="33"/>
       <c r="J34" s="125"/>
-      <c r="K34" s="259" t="s">
+      <c r="K34" s="269" t="s">
         <v>61</v>
       </c>
-      <c r="L34" s="260"/>
+      <c r="L34" s="270"/>
       <c r="M34" s="126"/>
       <c r="N34" s="32"/>
-      <c r="O34" s="215"/>
+      <c r="O34" s="191"/>
     </row>
     <row r="35" spans="2:15" ht="18" x14ac:dyDescent="0.25">
       <c r="B35" s="33"/>
@@ -13339,7 +13155,7 @@
       <c r="L35" s="25"/>
       <c r="M35" s="126"/>
       <c r="N35" s="32"/>
-      <c r="O35" s="215"/>
+      <c r="O35" s="191"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="33"/>
@@ -13357,7 +13173,7 @@
       <c r="L36" s="25"/>
       <c r="M36" s="126"/>
       <c r="N36" s="32"/>
-      <c r="O36" s="215"/>
+      <c r="O36" s="191"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" s="21"/>
@@ -13368,12 +13184,12 @@
       <c r="G37" s="25"/>
       <c r="H37" s="22"/>
       <c r="I37" s="21"/>
-      <c r="J37" s="209"/>
+      <c r="J37" s="185"/>
       <c r="K37" s="14" t="s">
         <v>1</v>
       </c>
       <c r="L37" s="72"/>
-      <c r="M37" s="210"/>
+      <c r="M37" s="186"/>
       <c r="N37" s="22"/>
     </row>
     <row r="38" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13385,10 +13201,10 @@
       <c r="G38" s="25"/>
       <c r="H38" s="22"/>
       <c r="I38" s="21"/>
-      <c r="J38" s="211"/>
-      <c r="K38" s="212"/>
-      <c r="L38" s="213"/>
-      <c r="M38" s="214"/>
+      <c r="J38" s="187"/>
+      <c r="K38" s="188"/>
+      <c r="L38" s="189"/>
+      <c r="M38" s="190"/>
       <c r="N38" s="22"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
@@ -13425,12 +13241,12 @@
       <c r="B41" s="26"/>
       <c r="C41" s="27"/>
       <c r="D41" s="28"/>
-      <c r="E41" s="169" t="s">
+      <c r="E41" s="239" t="s">
         <v>18</v>
       </c>
-      <c r="F41" s="169"/>
-      <c r="G41" s="169"/>
-      <c r="H41" s="170"/>
+      <c r="F41" s="239"/>
+      <c r="G41" s="239"/>
+      <c r="H41" s="240"/>
       <c r="I41" s="26"/>
       <c r="J41" s="28"/>
       <c r="K41" s="73" t="s">
